--- a/test_wikiwho_simple_.xlsx
+++ b/test_wikiwho_simple_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="807">
   <si>
     <t>Article</t>
   </si>
@@ -78,7 +78,7 @@
   </si>
   <si>
     <t>equipped with an on-board ROM, →
-equipped with an on-board ROM</t>
+Equipped with an on-board ROM</t>
   </si>
   <si>
     <t>short</t>
@@ -90,7 +90,8 @@
     <t>445260692</t>
   </si>
   <si>
-    <t>'Amstrad Spain'') during a short time in 1985. I → ''Amstrad Spain'') during a short time in 1985. Its</t>
+    <t>'Amstrad Spain'') during a short time in 1985. I → 
+''Amstrad Spain'') during a short time in 1985. Its</t>
   </si>
   <si>
     <t>968</t>
@@ -223,8 +224,19 @@
     <t>477670909</t>
   </si>
   <si>
-    <t>FAIL
-Mankind → Mankind"</t>
+    <r>
+      <t>Mankind → Mankind"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Seems like spliting doesnt work well</t>
+    </r>
   </si>
   <si>
     <t>judge</t>
@@ -489,6 +501,9 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>EXPECTED FAIL</t>
   </si>
   <si>
     <t>deciduous</t>
@@ -957,6 +972,21 @@
     <t>199684622</t>
   </si>
   <si>
+    <r>
+      <t>FAIL *!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>reason could be that correct rev id is wrongly selected. e.g here 'kingdom', 'of', 'norway' they all have rev_id as 199685857</t>
+    </r>
+  </si>
+  <si>
     <t>_</t>
   </si>
   <si>
@@ -1337,7 +1367,7 @@
     <t>By</t>
   </si>
   <si>
-    <t>2010}}|242 KB}}. By Gilbert Burnham, Riyadh Lafta,</t>
+    <t>2010}}|242&amp;nbsp;KB}}. By Gilbert Burnham, Riyadh Lafta,</t>
   </si>
   <si>
     <t>87192121</t>
@@ -1346,6 +1376,11 @@
     <t>334589457</t>
   </si>
   <si>
+    <t>2010}}|242 KB}}. By Gilbert Burnham, Riyadh Lafta, →
+2010}}|242&amp;nbsp;KB}}. By Gilbert Burnham, Riyadh Lafta,
+EXPECTED FAIL</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
@@ -1400,10 +1435,14 @@
     <t>462012990</t>
   </si>
   <si>
-    <t>&lt;ref&gt;Edward W. Said, 'Orientalism Reconsidered' in Francis Barker, Peter Hulme,</t>
+    <t>&lt;ref&gt;Edward W. Said, ‘Orientalism Reconsidered’ in</t>
   </si>
   <si>
     <t>205333624</t>
+  </si>
+  <si>
+    <t>&lt;ref&gt;Edward W. Said, 'Orientalism Reconsidered' in Francis Barker, Peter Hulme, → 
+&lt;ref&gt;Edward W. Said, ‘Orientalism Reconsidered’ in</t>
   </si>
   <si>
     <t>each</t>
@@ -1467,7 +1506,7 @@
     <t>ladys</t>
   </si>
   <si>
-    <t>clip the ladys ([[sic]]) ears off</t>
+    <t>To "clip the ladys ([[sic]]) ears off" gained</t>
   </si>
   <si>
     <t>7104305</t>
@@ -1476,10 +1515,30 @@
     <t>48586264</t>
   </si>
   <si>
+    <t>clip the ladys ([[sic]]) ears off →
+To "clip the ladys ([[sic]]) ears off" gained
+EXPECTED FAIL</t>
+  </si>
+  <si>
     <t>Donald</t>
   </si>
   <si>
-    <t>of letters regarding the case.&lt;ref&gt;[[Donald McCormick]] estimated "probably at least 2000</t>
+    <t>Of letters regarding the case.&lt;ref&gt;[[Donald McCormick]] estimated "probably at least 2000"</t>
+  </si>
+  <si>
+    <r>
+      <t>of letters regarding the case.&lt;ref&gt;[[Donald McCormick]] estimated "probably at least 2000 →
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Of letters regarding the case.&lt;ref&gt;[[Donald McCormick]] estimated "probably at least 2000"</t>
+    </r>
   </si>
   <si>
     <t>cartoon by [[John Tenniel]] ({{Nowrap|22 September}}</t>
@@ -1530,7 +1589,7 @@
     <t>452097741</t>
   </si>
   <si>
-    <t>KLM Destinations</t>
+    <t>KLM destinations</t>
   </si>
   <si>
     <t>1447</t>
@@ -1548,6 +1607,9 @@
     <t>22222048</t>
   </si>
   <si>
+    <t>KLM Destinations → KLM destinations</t>
+  </si>
+  <si>
     <t>KLM</t>
   </si>
   <si>
@@ -1584,12 +1646,16 @@
     <t>459197823</t>
   </si>
   <si>
-    <t>[[LŽopold SŽdar Senghor International Airport]] &lt;sup</t>
+    <t>[[Léopold Sédar Senghor International Airport]] &lt;sup&gt;</t>
   </si>
   <si>
     <t>458732268</t>
   </si>
   <si>
+    <t>[[LŽopold SŽdar Senghor International Airport]] &lt;sup → 
+[[Léopold Sédar Senghor International Airport]] &lt;sup&gt;</t>
+  </si>
+  <si>
     <t>Lemur</t>
   </si>
   <si>
@@ -1710,12 +1776,31 @@
     <t>481126024</t>
   </si>
   <si>
+    <t>/&gt;</t>
+  </si>
+  <si>
     <t>during Muhammad's early lifetime.&lt;ref name="EoI-Muhammad"/&gt;</t>
   </si>
   <si>
     <t>141764169</t>
   </si>
   <si>
+    <r>
+      <t>/ → /&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Seems like spliting doesnt work well
+FAIL, next token has rev id 141764169</t>
+    </r>
+  </si>
+  <si>
     <t>Unicode</t>
   </si>
   <si>
@@ -1770,12 +1855,27 @@
     <t>who</t>
   </si>
   <si>
-    <t>''Roger's Landing''' for Rogers who founded the settlement</t>
+    <t>'''Roger's Landing''' for Rogers who founded the settlement</t>
   </si>
   <si>
     <t>341434668</t>
   </si>
   <si>
+    <r>
+      <t>''Roger's Landing''' for Rogers who founded the settlement → 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>'''Roger's Landing''' for Rogers who founded the settlement</t>
+    </r>
+  </si>
+  <si>
     <t>[[George Fox University]], and a new campus of [[Portland Community College]]</t>
   </si>
   <si>
@@ -1827,12 +1927,30 @@
     <t>409787246</t>
   </si>
   <si>
+    <t>"Revision ID does not exist or is spam or deleted!"</t>
+  </si>
+  <si>
     <t>|date=12 February 2005</t>
   </si>
   <si>
     <t>478210588</t>
   </si>
   <si>
+    <r>
+      <t>https://en.wikipedia.org/w/api.php?action=query&amp;titles=Race%20and%20Intelligence&amp;prop=revisions&amp;format=json&amp;rvlimit=max&amp;rvprop=content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|ids|timestamp|sha1|comment|flags|user|userid
+This query returns 5 revisions</t>
+    </r>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
@@ -1903,6 +2021,21 @@
   </si>
   <si>
     <t>3Cg&amp;sa=X&amp;oi=book_result&amp;ct=</t>
+  </si>
+  <si>
+    <r>
+      <t>3Cg&amp;sa=X&amp;oi=book_result&amp;ct= → 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>a9ly90Y3WYyiGAwekMFKnPoGJ1I&amp;hl=en&amp;ei=SJv0SfSOC5GCkQXx1aD3Cg&amp;sa=X&amp;oi=book_result&amp;ct=</t>
+    </r>
   </si>
   <si>
     <t>red</t>
@@ -1930,10 +2063,25 @@
     <t>he</t>
   </si>
   <si>
-    <t>with Raleigh - he was one of the</t>
+    <t>he was one of the</t>
   </si>
   <si>
     <t>251139604</t>
+  </si>
+  <si>
+    <r>
+      <t>with Raleigh - he was one of the → 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>he was one of the</t>
+    </r>
   </si>
   <si>
     <t>with</t>
@@ -1955,7 +2103,11 @@
 cui solator accessit in arca Londinensi. Quo</t>
   </si>
   <si>
-    <t>generally believed to be an error as no such person was know</t>
+    <t>generally believed to be an error as no such person was known</t>
+  </si>
+  <si>
+    <t>generally believed to be an error as no such person was know → 
+generally believed to be an error as no such person was known</t>
   </si>
   <si>
     <t>critiqued</t>
@@ -2012,7 +2164,7 @@
     <t>135546415</t>
   </si>
   <si>
-    <t>base</t>
+    <t>base"</t>
   </si>
   <si>
     <t>of human colonization and mining called "M-Base".</t>
@@ -2021,6 +2173,22 @@
     <t>127975759</t>
   </si>
   <si>
+    <r>
+      <t>Base → base"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Seems like spliting doesnt work well</t>
+    </r>
+  </si>
+  <si>
     <t>Sergei Korolev</t>
   </si>
   <si>
@@ -2084,12 +2252,27 @@
     <t>480564534</t>
   </si>
   <si>
-    <t>[London Waterloo station|Waterloo]] in the centre of London.</t>
+    <t>[[London Waterloo station|Waterloo]] in the centre of London.</t>
   </si>
   <si>
     <t>181667862</t>
   </si>
   <si>
+    <r>
+      <t>[London Waterloo station|Waterloo]] in the centre of London. → 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>[[London Waterloo station|Waterloo]] in the centre of London.</t>
+    </r>
+  </si>
+  <si>
     <t>{{</t>
   </si>
   <si>
@@ -2162,9 +2345,42 @@
     <t>351942186</t>
   </si>
   <si>
+    <r>
+      <t>25 March 2010|publisher=Ministry of Defence|title=Why Join the Royal Signals?|url=h → 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>25 March 2010|publisher=Ministry of Defence|title=Why Join the Royal</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;/</t>
+  </si>
+  <si>
     <t>| 'B' Squadron&lt;ref&gt;Fremont-Barnes, p.4&lt;/ref&gt;</t>
   </si>
   <si>
+    <r>
+      <t>/ → &lt;/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Seems like spliting doesnt work well</t>
+    </r>
+  </si>
+  <si>
     <t>Michael E|title=Encyclopaedia of Elite Forces in the Second World War</t>
   </si>
   <si>
@@ -2228,7 +2444,7 @@
     <t>287529321</t>
   </si>
   <si>
-    <t>party</t>
+    <t>party's</t>
   </si>
   <si>
     <t>the party's racism. Many leaders of German</t>
@@ -2237,6 +2453,21 @@
     <t>226617182</t>
   </si>
   <si>
+    <r>
+      <t>Party → party's
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Seems like spliting doesnt work well</t>
+    </r>
+  </si>
+  <si>
     <t>Toshitsugu_Takamatsu</t>
   </si>
   <si>
@@ -2267,6 +2498,47 @@
     <t>336776651</t>
   </si>
   <si>
+    <r>
+      <t>(Chosui) Takamatsu, also known as Moko no Tora (____ ''Mongolian Tiger'') → 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(Chosui) Takamatsu, also known as Moko no Tora (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t>蒙古の虎 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>''Mongolian Tiger'')
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EXPECTED FAIL</t>
+    </r>
+  </si>
+  <si>
     <t>historical</t>
   </si>
   <si>
@@ -2276,12 +2548,27 @@
     <t>455245816</t>
   </si>
   <si>
-    <t>prefecture{{citation needed|date=December 2011}</t>
+    <t>Prefecture{{citation needed|date=December 2011}}.</t>
   </si>
   <si>
     <t>467046514</t>
   </si>
   <si>
+    <r>
+      <t>prefecture{{citation needed|date=December 2011} → 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Prefecture{{citation needed|date=December 2011}}.</t>
+    </r>
+  </si>
+  <si>
     <t>students. He was the bodyguard</t>
   </si>
   <si>
@@ -2415,6 +2702,21 @@
   </si>
   <si>
     <t>46525</t>
+  </si>
+  <si>
+    <r>
+      <t>DISPUTED!
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FAIL</t>
+    </r>
   </si>
   <si>
     <t>west</t>
@@ -2443,7 +2745,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2472,24 +2774,86 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FFFF0066"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="FreeSans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFCC0066"/>
+      <color rgb="FFFFFF00"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0066"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3333"/>
+        <bgColor rgb="FFFF0066"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor rgb="FFFF8080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF009900"/>
+        <bgColor rgb="FF339966"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2526,7 +2890,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2543,20 +2907,116 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2572,17 +3032,17 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFF0066"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF009900"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FFCC0066"/>
+      <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
@@ -2607,7 +3067,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFF9999"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -2615,7 +3075,7 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF3333"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -2638,8 +3098,8 @@
   </sheetPr>
   <dimension ref="A1:K240"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E114" activeCellId="0" sqref="E114"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K159" activeCellId="0" sqref="K159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2719,7 +3179,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>11</v>
       </c>
@@ -2748,7 +3208,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>11</v>
       </c>
@@ -2773,7 +3233,7 @@
       <c r="H4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2946,7 +3406,7 @@
       <c r="D11" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -3066,32 +3526,34 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="H16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="8" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3303,38 +3765,38 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="1" t="s">
+      <c r="H25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="K25" s="0" t="s">
+      <c r="K25" s="9" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3468,38 +3930,38 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="2" t="n">
+      <c r="H31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="11" t="n">
         <v>336848732</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="K31" s="0" t="s">
+      <c r="K31" s="9" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3763,39 +4225,39 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="I42" s="2" t="n">
+      <c r="I42" s="14" t="n">
         <v>90766018</v>
       </c>
-      <c r="J42" s="0" t="n">
+      <c r="J42" s="12" t="n">
         <v>90766018</v>
       </c>
-      <c r="K42" s="0" t="s">
-        <v>98</v>
+      <c r="K42" s="12" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3809,10 +4271,10 @@
         <v>140</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>145</v>
@@ -3824,97 +4286,97 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="B44" s="1" t="s">
+    <row r="44" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="B44" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="C44" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="D44" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="E44" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="F44" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="G44" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="H44" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="I44" s="2" t="n">
+      <c r="I44" s="14" t="n">
         <v>519480465</v>
       </c>
-      <c r="J44" s="0" t="n">
+      <c r="J44" s="12" t="n">
         <v>519480465</v>
       </c>
-      <c r="K44" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="K44" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D45" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="E45" s="0" t="s">
+      <c r="C45" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="E45" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="F45" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="G45" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H45" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="I45" s="2" t="n">
+      <c r="I45" s="14" t="n">
         <v>304072381</v>
       </c>
-      <c r="J45" s="0" t="n">
+      <c r="J45" s="12" t="n">
         <v>304072381</v>
       </c>
-      <c r="K45" s="0" t="s">
-        <v>98</v>
+      <c r="K45" s="12" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>17</v>
@@ -3922,25 +4384,25 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>17</v>
@@ -3948,25 +4410,25 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>17</v>
@@ -3974,83 +4436,84 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="B50" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="C50" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="E49" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="E50" s="0" t="s">
+      <c r="D50" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="E50" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="F50" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="G50" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="H50" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="J50" s="0" t="n">
+      <c r="I50" s="15"/>
+      <c r="J50" s="12" t="n">
         <v>113050209</v>
       </c>
-      <c r="K50" s="0" t="s">
-        <v>98</v>
+      <c r="K50" s="12" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>62</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>17</v>
@@ -4058,54 +4521,54 @@
     </row>
     <row r="52" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K52" s="4" t="s">
-        <v>194</v>
+      <c r="K52" s="16" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>17</v>
@@ -4113,25 +4576,25 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>37</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>17</v>
@@ -4139,25 +4602,25 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>17</v>
@@ -4165,25 +4628,25 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>17</v>
@@ -4191,25 +4654,25 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>17</v>
@@ -4217,25 +4680,25 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>17</v>
@@ -4243,25 +4706,25 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>17</v>
@@ -4269,25 +4732,25 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>59</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>17</v>
@@ -4295,25 +4758,25 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>17</v>
@@ -4321,25 +4784,25 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>17</v>
@@ -4347,25 +4810,25 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>17</v>
@@ -4373,25 +4836,25 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>17</v>
@@ -4399,83 +4862,84 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="B66" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="C66" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="E65" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="E66" s="0" t="s">
+      <c r="D66" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="E66" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="F66" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="G66" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H66" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="J66" s="0" t="n">
+      <c r="I66" s="15"/>
+      <c r="J66" s="12" t="n">
         <v>101938292</v>
       </c>
-      <c r="K66" s="0" t="s">
-        <v>98</v>
+      <c r="K66" s="12" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>17</v>
@@ -4483,25 +4947,25 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>17</v>
@@ -4509,25 +4973,25 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>17</v>
@@ -4535,25 +4999,25 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>17</v>
@@ -4561,25 +5025,25 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>17</v>
@@ -4587,25 +5051,25 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>17</v>
@@ -4613,25 +5077,25 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>17</v>
@@ -4639,25 +5103,25 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>17</v>
@@ -4665,25 +5129,25 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>17</v>
@@ -4691,25 +5155,25 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>17</v>
@@ -4717,25 +5181,25 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>281</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>17</v>
@@ -4743,25 +5207,25 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>59</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>17</v>
@@ -4769,25 +5233,25 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>17</v>
@@ -4795,25 +5259,25 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>62</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>17</v>
@@ -4821,25 +5285,25 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>17</v>
@@ -4847,25 +5311,25 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>59</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>17</v>
@@ -4873,86 +5337,86 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" s="18" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="B84" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="D83" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="E83" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F84" s="1" t="s">
+      <c r="C84" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E84" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I84" s="6" t="n">
-        <v>199684622</v>
-      </c>
-      <c r="J84" s="7" t="n">
+      <c r="F84" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="G84" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="H84" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" s="9" t="n">
         <v>199685857</v>
       </c>
-      <c r="K84" s="7" t="s">
-        <v>98</v>
+      <c r="J84" s="9" t="n">
+        <v>199685857</v>
+      </c>
+      <c r="K84" s="9" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>17</v>
@@ -4960,25 +5424,25 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>17</v>
@@ -4986,25 +5450,25 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>17</v>
@@ -5012,25 +5476,25 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>17</v>
@@ -5038,25 +5502,25 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>17</v>
@@ -5064,25 +5528,25 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>17</v>
@@ -5090,25 +5554,25 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>46</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>17</v>
@@ -5116,25 +5580,25 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>17</v>
@@ -5142,25 +5606,25 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E93" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="G93" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>17</v>
@@ -5168,25 +5632,25 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>17</v>
@@ -5194,55 +5658,55 @@
     </row>
     <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I95" s="2"/>
-      <c r="K95" s="4" t="s">
-        <v>337</v>
+      <c r="K95" s="16" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>17</v>
@@ -5250,25 +5714,25 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E97" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="G97" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>17</v>
@@ -5276,25 +5740,25 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>17</v>
@@ -5302,25 +5766,25 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>17</v>
@@ -5328,25 +5792,25 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>17</v>
@@ -5354,25 +5818,25 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>17</v>
@@ -5380,25 +5844,25 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C102" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D102" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="D102" s="0" t="s">
-        <v>348</v>
-      </c>
       <c r="E102" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>17</v>
@@ -5406,25 +5870,25 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>17</v>
@@ -5432,25 +5896,25 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>17</v>
@@ -5458,25 +5922,25 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>17</v>
@@ -5484,25 +5948,25 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>17</v>
@@ -5510,25 +5974,25 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>17</v>
@@ -5536,25 +6000,25 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>17</v>
@@ -5562,25 +6026,25 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>17</v>
@@ -5588,25 +6052,25 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>94</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>17</v>
@@ -5614,25 +6078,25 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>17</v>
@@ -5640,25 +6104,25 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>17</v>
@@ -5666,25 +6130,25 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>17</v>
@@ -5692,54 +6156,54 @@
     </row>
     <row r="114" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K114" s="4" t="s">
-        <v>400</v>
+      <c r="K114" s="16" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>17</v>
@@ -5747,129 +6211,143 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C116" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="D116" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="E116" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D117" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="E117" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="F117" s="1" t="s">
+      <c r="B117" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="D117" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="E117" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="H117" s="1" t="s">
+      <c r="F117" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="G117" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="H117" s="13" t="s">
         <v>156</v>
+      </c>
+      <c r="I117" s="15"/>
+      <c r="J117" s="12" t="n">
+        <v>162158071</v>
+      </c>
+      <c r="K117" s="15" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C118" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" s="12" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="D118" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="E118" s="2" t="s">
+      <c r="B119" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="C119" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="G118" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D119" s="0" t="s">
-        <v>416</v>
-      </c>
-      <c r="E119" s="0" t="s">
-        <v>417</v>
-      </c>
-      <c r="F119" s="1" t="s">
+      <c r="D119" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="G119" s="1" t="s">
+      <c r="E119" s="21" t="s">
         <v>419</v>
       </c>
-      <c r="H119" s="1" t="s">
+      <c r="F119" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="G119" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="H119" s="13" t="s">
         <v>156</v>
+      </c>
+      <c r="I119" s="15"/>
+      <c r="J119" s="12" t="n">
+        <v>334589457</v>
+      </c>
+      <c r="K119" s="22" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>17</v>
@@ -5877,25 +6355,25 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>17</v>
@@ -5903,25 +6381,25 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D122" s="0" t="s">
         <v>59</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>17</v>
@@ -5929,25 +6407,25 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>17</v>
@@ -5955,25 +6433,25 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D124" s="0" t="s">
         <v>126</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>17</v>
@@ -5981,77 +6459,80 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D125" s="0" t="s">
         <v>62</v>
       </c>
       <c r="E125" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>433</v>
       </c>
       <c r="D126" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="E126" s="0" t="s">
-        <v>438</v>
+      <c r="E126" s="3" t="s">
+        <v>441</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="K126" s="16" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>17</v>
@@ -6059,25 +6540,25 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>17</v>
@@ -6085,25 +6566,25 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>17</v>
@@ -6111,25 +6592,25 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D130" s="0" t="s">
         <v>37</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>17</v>
@@ -6137,132 +6618,142 @@
     </row>
     <row r="131" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K131" s="4" t="s">
-        <v>456</v>
+      <c r="K131" s="16" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D133" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="E133" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="G133" s="1" t="s">
+    <row r="133" s="12" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="D133" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="E133" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="F133" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="G133" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="H133" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I133" s="15"/>
+      <c r="J133" s="12" t="n">
+        <v>48586264</v>
+      </c>
+      <c r="K133" s="22" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="H133" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D134" s="0" t="s">
-        <v>463</v>
-      </c>
-      <c r="E134" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>458</v>
-      </c>
       <c r="G134" s="1" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="K134" s="16" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>17</v>
@@ -6270,25 +6761,25 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>17</v>
@@ -6296,25 +6787,25 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="D137" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>17</v>
@@ -6322,25 +6813,25 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="D138" s="0" t="s">
         <v>59</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>17</v>
@@ -6348,25 +6839,25 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>17</v>
@@ -6374,207 +6865,213 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="D140" s="0" t="s">
         <v>59</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
-        <v>481</v>
+      <c r="A141" s="3" t="s">
+        <v>487</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="K141" s="0" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
-        <v>481</v>
+      <c r="A142" s="3" t="s">
+        <v>487</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="D142" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="E142" s="0" t="s">
+      <c r="B143" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="F142" s="1" t="s">
+      <c r="C143" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="D143" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="E143" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="H142" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="D143" s="0" t="s">
-        <v>490</v>
-      </c>
-      <c r="E143" s="0" t="s">
-        <v>491</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>483</v>
-      </c>
       <c r="D144" s="0" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
-        <v>481</v>
+      <c r="A145" s="3" t="s">
+        <v>487</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
-        <v>481</v>
+    <row r="146" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="3" t="s">
+        <v>487</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="D146" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="E146" s="0" t="s">
-        <v>499</v>
+      <c r="E146" s="3" t="s">
+        <v>506</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="K146" s="16" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>17</v>
@@ -6582,25 +7079,25 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>17</v>
@@ -6608,25 +7105,25 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>17</v>
@@ -6634,25 +7131,25 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>17</v>
@@ -6660,25 +7157,25 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>17</v>
@@ -6686,25 +7183,25 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>17</v>
@@ -6712,25 +7209,25 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>17</v>
@@ -6738,25 +7235,25 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="D154" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>17</v>
@@ -6764,25 +7261,25 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>17</v>
@@ -6790,25 +7287,25 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>17</v>
@@ -6816,25 +7313,25 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>17</v>
@@ -6842,77 +7339,86 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
-        <v>538</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D159" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="E159" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="H159" s="1" t="s">
-        <v>17</v>
+    <row r="159" s="18" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="B159" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="C159" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="D159" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="E159" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="F159" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="G159" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="H159" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I159" s="18" t="n">
+        <v>117479325</v>
+      </c>
+      <c r="J159" s="18" t="n">
+        <v>117479325</v>
+      </c>
+      <c r="K159" s="20" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>17</v>
@@ -6920,25 +7426,25 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>17</v>
@@ -6946,25 +7452,25 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>17</v>
@@ -6972,25 +7478,25 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="D163" s="0" t="s">
         <v>62</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>17</v>
@@ -6998,77 +7504,80 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>560</v>
-      </c>
-      <c r="E165" s="0" t="s">
-        <v>561</v>
+        <v>570</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>571</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="K165" s="16" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="D166" s="0" t="s">
         <v>62</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>17</v>
@@ -7076,25 +7585,25 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>17</v>
@@ -7102,25 +7611,25 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="D168" s="0" t="s">
         <v>59</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>17</v>
@@ -7128,25 +7637,25 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E169" s="0" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>17</v>
@@ -7154,207 +7663,231 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="E170" s="0" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
-        <v>574</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="D171" s="0" t="s">
-        <v>577</v>
-      </c>
-      <c r="E171" s="0" t="s">
-        <v>578</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="H171" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
-        <v>574</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="D172" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="E172" s="0" t="s">
-        <v>580</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="H172" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
-        <v>574</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="D173" s="0" t="s">
-        <v>582</v>
-      </c>
-      <c r="E173" s="0" t="s">
-        <v>583</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="H173" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
-        <v>574</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="D174" s="0" t="s">
+    <row r="171" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="E174" s="0" t="s">
+      <c r="B171" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="F174" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="G174" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="H174" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
-        <v>574</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="D175" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="E175" s="0" t="s">
+      <c r="C171" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="F175" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
-        <v>574</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="D176" s="0" t="s">
+      <c r="D171" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="E176" s="0" t="s">
+      <c r="E171" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="F176" s="1" t="s">
+      <c r="F171" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="G176" s="1" t="s">
+      <c r="G171" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="H176" s="1" t="s">
-        <v>17</v>
+      <c r="H171" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I171" s="7"/>
+      <c r="K171" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="172" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="G172" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="H172" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I172" s="7"/>
+      <c r="K172" s="23" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="173" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="G173" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="H173" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I173" s="7"/>
+      <c r="K173" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="174" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="G174" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="H174" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I174" s="7"/>
+      <c r="K174" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="175" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="G175" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="H175" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I175" s="7"/>
+      <c r="K175" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="176" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="G176" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="H176" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I176" s="7"/>
+      <c r="K176" s="7" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="E177" s="0" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>17</v>
@@ -7362,25 +7895,25 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E178" s="0" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>17</v>
@@ -7388,25 +7921,25 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="E179" s="0" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>17</v>
@@ -7414,129 +7947,142 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="E180" s="0" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="D181" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="E181" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K181" s="16" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="182" s="24" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="24" t="s">
         <v>604</v>
       </c>
-      <c r="E181" s="0" t="s">
+      <c r="B182" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="F181" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="G181" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="H181" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
-        <v>591</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="D182" s="0" t="s">
+      <c r="C182" s="25" t="s">
         <v>606</v>
       </c>
-      <c r="E182" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="G182" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="H182" s="1" t="s">
+      <c r="D182" s="24" t="s">
+        <v>620</v>
+      </c>
+      <c r="E182" s="26" t="s">
+        <v>621</v>
+      </c>
+      <c r="F182" s="25" t="s">
+        <v>622</v>
+      </c>
+      <c r="G182" s="25" t="s">
+        <v>623</v>
+      </c>
+      <c r="H182" s="25" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I182" s="25" t="s">
+        <v>622</v>
+      </c>
+      <c r="J182" s="25" t="s">
+        <v>622</v>
+      </c>
+      <c r="K182" s="27"/>
+    </row>
+    <row r="183" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>613</v>
+        <v>627</v>
       </c>
       <c r="E183" s="0" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="K183" s="16" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="E184" s="0" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>17</v>
@@ -7544,25 +8090,25 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E185" s="0" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>17</v>
@@ -7570,80 +8116,83 @@
     </row>
     <row r="186" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="E186" s="0" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E187" s="0" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="K187" s="16" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
       <c r="E188" s="0" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>625</v>
+        <v>641</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>625</v>
+        <v>641</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>17</v>
@@ -7651,25 +8200,25 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="E189" s="0" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="H189" s="1" t="s">
         <v>17</v>
@@ -7677,25 +8226,25 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="D190" s="0" t="s">
         <v>62</v>
       </c>
       <c r="E190" s="0" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>17</v>
@@ -7703,25 +8252,25 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="D191" s="0" t="s">
         <v>59</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>17</v>
@@ -7729,25 +8278,25 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E192" s="0" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>17</v>
@@ -7755,77 +8304,80 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>638</v>
+        <v>654</v>
       </c>
       <c r="E193" s="0" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
-        <v>626</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="D194" s="0" t="s">
-        <v>641</v>
-      </c>
-      <c r="E194" s="0" t="s">
+    <row r="194" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="F194" s="1" t="s">
+      <c r="B194" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="G194" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="H194" s="1" t="s">
-        <v>17</v>
+      <c r="C194" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="G194" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="H194" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K194" s="8" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>644</v>
+        <v>661</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>645</v>
+        <v>662</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>646</v>
+        <v>663</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>647</v>
+        <v>664</v>
       </c>
       <c r="E195" s="0" t="s">
-        <v>648</v>
+        <v>665</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>649</v>
+        <v>666</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>649</v>
+        <v>666</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>17</v>
@@ -7833,25 +8385,25 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>644</v>
+        <v>661</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>645</v>
+        <v>662</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>646</v>
+        <v>663</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="E196" s="0" t="s">
-        <v>651</v>
+        <v>668</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>17</v>
@@ -7859,25 +8411,25 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>644</v>
+        <v>661</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>645</v>
+        <v>662</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>646</v>
+        <v>663</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="E197" s="0" t="s">
-        <v>654</v>
+        <v>671</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>655</v>
+        <v>672</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>655</v>
+        <v>672</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>17</v>
@@ -7885,129 +8437,139 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>644</v>
+        <v>661</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>645</v>
+        <v>662</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>646</v>
+        <v>663</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>656</v>
+        <v>673</v>
       </c>
       <c r="E198" s="0" t="s">
-        <v>657</v>
+        <v>674</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>658</v>
+        <v>675</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>658</v>
+        <v>675</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
-        <v>644</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="D199" s="0" t="s">
-        <v>549</v>
-      </c>
-      <c r="E199" s="0" t="s">
-        <v>659</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="G199" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="H199" s="1" t="s">
+    <row r="199" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="24" t="s">
+        <v>661</v>
+      </c>
+      <c r="B199" s="25" t="s">
+        <v>662</v>
+      </c>
+      <c r="C199" s="25" t="s">
+        <v>663</v>
+      </c>
+      <c r="D199" s="24" t="s">
+        <v>559</v>
+      </c>
+      <c r="E199" s="24" t="s">
+        <v>676</v>
+      </c>
+      <c r="F199" s="25" t="s">
+        <v>672</v>
+      </c>
+      <c r="G199" s="25" t="s">
+        <v>677</v>
+      </c>
+      <c r="H199" s="25" t="s">
         <v>156</v>
       </c>
+      <c r="I199" s="25" t="s">
+        <v>672</v>
+      </c>
+      <c r="J199" s="25" t="s">
+        <v>672</v>
+      </c>
+      <c r="K199" s="27"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>644</v>
+        <v>661</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>645</v>
+        <v>662</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>646</v>
+        <v>663</v>
       </c>
       <c r="D200" s="0" t="s">
         <v>72</v>
       </c>
       <c r="E200" s="0" t="s">
-        <v>661</v>
+        <v>678</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>655</v>
+        <v>672</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>655</v>
+        <v>672</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>662</v>
+        <v>679</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>664</v>
+        <v>681</v>
       </c>
       <c r="D201" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E201" s="0" t="s">
-        <v>665</v>
+      <c r="E201" s="3" t="s">
+        <v>682</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>666</v>
+        <v>683</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>666</v>
+        <v>683</v>
       </c>
       <c r="H201" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="K201" s="16" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>662</v>
+        <v>679</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>664</v>
+        <v>681</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
       <c r="E202" s="0" t="s">
-        <v>668</v>
+        <v>686</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="H202" s="1" t="s">
         <v>17</v>
@@ -8015,25 +8577,25 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>662</v>
+        <v>679</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>664</v>
+        <v>681</v>
       </c>
       <c r="D203" s="0" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="E203" s="0" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>17</v>
@@ -8041,25 +8603,25 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>662</v>
+        <v>679</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>664</v>
+        <v>681</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
       <c r="E204" s="0" t="s">
-        <v>674</v>
+        <v>692</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>17</v>
@@ -8067,25 +8629,25 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>662</v>
+        <v>679</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>664</v>
+        <v>681</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E205" s="0" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>17</v>
@@ -8093,25 +8655,25 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>662</v>
+        <v>679</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>664</v>
+        <v>681</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
       <c r="E206" s="0" t="s">
-        <v>679</v>
+        <v>697</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>17</v>
@@ -8119,25 +8681,25 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="E207" s="0" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>685</v>
+        <v>703</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>685</v>
+        <v>703</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>17</v>
@@ -8145,129 +8707,136 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>686</v>
+        <v>704</v>
       </c>
       <c r="E208" s="0" t="s">
-        <v>687</v>
+        <v>705</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>688</v>
+        <v>706</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>688</v>
+        <v>706</v>
       </c>
       <c r="H208" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="D209" s="0" t="s">
         <v>62</v>
       </c>
       <c r="E209" s="0" t="s">
-        <v>689</v>
+        <v>707</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>690</v>
+        <v>708</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>690</v>
+        <v>708</v>
       </c>
       <c r="H209" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
-        <v>680</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="D210" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="E210" s="0" t="s">
-        <v>691</v>
-      </c>
-      <c r="F210" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="G210" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="H210" s="1" t="s">
-        <v>17</v>
+      <c r="K209" s="16" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="210" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="G210" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="H210" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K210" s="8" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E211" s="0" t="s">
-        <v>692</v>
+        <v>713</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>693</v>
+        <v>714</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>693</v>
+        <v>714</v>
       </c>
       <c r="H211" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="K211" s="28"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>694</v>
+        <v>715</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>695</v>
+        <v>716</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>696</v>
+        <v>717</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>696</v>
+        <v>717</v>
       </c>
       <c r="H212" s="1" t="s">
         <v>17</v>
@@ -8275,25 +8844,25 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>697</v>
+        <v>718</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>698</v>
+        <v>719</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>699</v>
+        <v>720</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>700</v>
+        <v>721</v>
       </c>
       <c r="E213" s="0" t="s">
-        <v>701</v>
+        <v>722</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>702</v>
+        <v>723</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>702</v>
+        <v>723</v>
       </c>
       <c r="H213" s="1" t="s">
         <v>17</v>
@@ -8301,25 +8870,25 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>697</v>
+        <v>718</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>698</v>
+        <v>719</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>699</v>
+        <v>720</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="E214" s="0" t="s">
-        <v>703</v>
+        <v>724</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="H214" s="1" t="s">
         <v>17</v>
@@ -8327,25 +8896,25 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>697</v>
+        <v>718</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>698</v>
+        <v>719</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>699</v>
+        <v>720</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>705</v>
+        <v>726</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>706</v>
+        <v>727</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>707</v>
+        <v>728</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>707</v>
+        <v>728</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>17</v>
@@ -8353,25 +8922,25 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>697</v>
+        <v>718</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>698</v>
+        <v>719</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>699</v>
+        <v>720</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E216" s="0" t="s">
-        <v>708</v>
+        <v>729</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>709</v>
+        <v>730</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>709</v>
+        <v>730</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>17</v>
@@ -8379,181 +8948,193 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>697</v>
+        <v>718</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>698</v>
+        <v>719</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>699</v>
+        <v>720</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>710</v>
+        <v>731</v>
       </c>
       <c r="E217" s="0" t="s">
-        <v>711</v>
+        <v>732</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>712</v>
+        <v>733</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>712</v>
+        <v>733</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="s">
-        <v>697</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="D218" s="0" t="s">
-        <v>713</v>
-      </c>
-      <c r="E218" s="0" t="s">
-        <v>714</v>
-      </c>
-      <c r="F218" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="G218" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="H218" s="1" t="s">
-        <v>17</v>
+    <row r="218" s="4" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="G218" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="H218" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K218" s="29" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>716</v>
+        <v>738</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>717</v>
+        <v>739</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>718</v>
+        <v>740</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>719</v>
+        <v>741</v>
       </c>
       <c r="E219" s="0" t="s">
-        <v>720</v>
+        <v>742</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="s">
-        <v>716</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="D220" s="0" t="s">
-        <v>722</v>
-      </c>
-      <c r="E220" s="0" t="s">
-        <v>723</v>
-      </c>
-      <c r="F220" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="G220" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="H220" s="1" t="s">
+    <row r="220" s="12" customFormat="true" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="B220" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="C220" s="13" t="s">
+        <v>740</v>
+      </c>
+      <c r="D220" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="E220" s="12" t="s">
+        <v>745</v>
+      </c>
+      <c r="F220" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="G220" s="13" t="s">
+        <v>747</v>
+      </c>
+      <c r="H220" s="13" t="s">
         <v>156</v>
+      </c>
+      <c r="J220" s="30" t="n">
+        <v>336776651</v>
+      </c>
+      <c r="K220" s="22" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>716</v>
+        <v>738</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>717</v>
+        <v>739</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>718</v>
+        <v>740</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>726</v>
+        <v>749</v>
       </c>
       <c r="E221" s="0" t="s">
-        <v>727</v>
+        <v>750</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>728</v>
+        <v>751</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>728</v>
+        <v>751</v>
       </c>
       <c r="H221" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>716</v>
+        <v>738</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>717</v>
+        <v>739</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>718</v>
+        <v>740</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="E222" s="0" t="s">
-        <v>729</v>
+        <v>258</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>752</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>730</v>
+        <v>753</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>730</v>
+        <v>753</v>
       </c>
       <c r="H222" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="K222" s="16" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>716</v>
+        <v>738</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>717</v>
+        <v>739</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>718</v>
+        <v>740</v>
       </c>
       <c r="D223" s="0" t="s">
         <v>72</v>
       </c>
       <c r="E223" s="0" t="s">
-        <v>731</v>
+        <v>755</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>732</v>
+        <v>756</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>732</v>
+        <v>756</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>17</v>
@@ -8561,25 +9142,25 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>716</v>
+        <v>738</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>717</v>
+        <v>739</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>718</v>
+        <v>740</v>
       </c>
       <c r="D224" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E224" s="0" t="s">
-        <v>733</v>
+        <v>757</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>734</v>
+        <v>758</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>734</v>
+        <v>758</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>17</v>
@@ -8587,25 +9168,25 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>735</v>
+        <v>759</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>736</v>
+        <v>760</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>737</v>
+        <v>761</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E225" s="0" t="s">
-        <v>738</v>
+        <v>762</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>739</v>
+        <v>763</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>739</v>
+        <v>763</v>
       </c>
       <c r="H225" s="1" t="s">
         <v>17</v>
@@ -8613,77 +9194,83 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>735</v>
+        <v>759</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>736</v>
+        <v>760</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>737</v>
+        <v>761</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>740</v>
+        <v>764</v>
       </c>
       <c r="E226" s="0" t="s">
-        <v>741</v>
+        <v>765</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>742</v>
+        <v>766</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>742</v>
+        <v>766</v>
       </c>
       <c r="H226" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="s">
-        <v>735</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="D227" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="E227" s="0" t="s">
-        <v>743</v>
-      </c>
-      <c r="F227" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="G227" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="H227" s="1" t="s">
+    <row r="227" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="12" t="s">
+        <v>759</v>
+      </c>
+      <c r="B227" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="C227" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="D227" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="E227" s="12" t="s">
+        <v>767</v>
+      </c>
+      <c r="F227" s="13" t="s">
+        <v>768</v>
+      </c>
+      <c r="G227" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="H227" s="13" t="s">
         <v>156</v>
+      </c>
+      <c r="J227" s="30" t="n">
+        <v>480200996</v>
+      </c>
+      <c r="K227" s="22" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>735</v>
+        <v>759</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>736</v>
+        <v>760</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>737</v>
+        <v>761</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>746</v>
+        <v>770</v>
       </c>
       <c r="E228" s="0" t="s">
-        <v>747</v>
+        <v>771</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>748</v>
+        <v>772</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>748</v>
+        <v>772</v>
       </c>
       <c r="H228" s="1" t="s">
         <v>17</v>
@@ -8691,25 +9278,25 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>735</v>
+        <v>759</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>736</v>
+        <v>760</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>737</v>
+        <v>761</v>
       </c>
       <c r="D229" s="0" t="s">
         <v>28</v>
       </c>
       <c r="E229" s="0" t="s">
-        <v>749</v>
+        <v>773</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>745</v>
+        <v>769</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>745</v>
+        <v>769</v>
       </c>
       <c r="H229" s="1" t="s">
         <v>17</v>
@@ -8717,25 +9304,25 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>735</v>
+        <v>759</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>736</v>
+        <v>760</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>737</v>
+        <v>761</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E230" s="0" t="s">
-        <v>750</v>
+        <v>774</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>745</v>
+        <v>769</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>745</v>
+        <v>769</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>17</v>
@@ -8743,25 +9330,25 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>751</v>
+        <v>775</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>752</v>
+        <v>776</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>753</v>
+        <v>777</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E231" s="0" t="s">
-        <v>754</v>
+        <v>778</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>755</v>
+        <v>779</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>755</v>
+        <v>779</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>17</v>
@@ -8769,25 +9356,25 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>751</v>
+        <v>775</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>752</v>
+        <v>776</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>753</v>
+        <v>777</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>756</v>
+        <v>780</v>
       </c>
       <c r="E232" s="0" t="s">
-        <v>757</v>
+        <v>781</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>758</v>
+        <v>782</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>758</v>
+        <v>782</v>
       </c>
       <c r="H232" s="1" t="s">
         <v>17</v>
@@ -8795,25 +9382,25 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>751</v>
+        <v>775</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>752</v>
+        <v>776</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>753</v>
+        <v>777</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>759</v>
+        <v>783</v>
       </c>
       <c r="E233" s="0" t="s">
-        <v>760</v>
+        <v>784</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>761</v>
+        <v>785</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>761</v>
+        <v>785</v>
       </c>
       <c r="H233" s="1" t="s">
         <v>17</v>
@@ -8821,25 +9408,25 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>751</v>
+        <v>775</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>752</v>
+        <v>776</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>753</v>
+        <v>777</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E234" s="0" t="s">
-        <v>762</v>
+        <v>786</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>763</v>
+        <v>787</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>763</v>
+        <v>787</v>
       </c>
       <c r="H234" s="1" t="s">
         <v>17</v>
@@ -8847,25 +9434,25 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>751</v>
+        <v>775</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>752</v>
+        <v>776</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>753</v>
+        <v>777</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>764</v>
+        <v>788</v>
       </c>
       <c r="E235" s="0" t="s">
-        <v>765</v>
+        <v>789</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>766</v>
+        <v>790</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>766</v>
+        <v>790</v>
       </c>
       <c r="H235" s="1" t="s">
         <v>17</v>
@@ -8873,25 +9460,25 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>751</v>
+        <v>775</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>752</v>
+        <v>776</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>753</v>
+        <v>777</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E236" s="0" t="s">
-        <v>767</v>
+        <v>791</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>768</v>
+        <v>792</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>768</v>
+        <v>792</v>
       </c>
       <c r="H236" s="1" t="s">
         <v>17</v>
@@ -8899,121 +9486,130 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>769</v>
+        <v>793</v>
       </c>
       <c r="E237" s="0" t="s">
-        <v>770</v>
+        <v>794</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>771</v>
+        <v>795</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>771</v>
+        <v>795</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K237" s="0" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="B238" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="238" s="18" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="B238" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="D238" s="0" t="s">
-        <v>773</v>
-      </c>
-      <c r="E238" s="0" t="s">
-        <v>774</v>
-      </c>
-      <c r="F238" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="G238" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="H238" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K238" s="0" t="s">
-        <v>772</v>
+      <c r="C238" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="D238" s="18" t="s">
+        <v>797</v>
+      </c>
+      <c r="E238" s="18" t="s">
+        <v>798</v>
+      </c>
+      <c r="F238" s="19" t="s">
+        <v>799</v>
+      </c>
+      <c r="G238" s="19" t="s">
+        <v>799</v>
+      </c>
+      <c r="H238" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I238" s="31" t="n">
+        <v>274782</v>
+      </c>
+      <c r="J238" s="31" t="n">
+        <v>274782</v>
+      </c>
+      <c r="K238" s="20" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D239" s="0" t="s">
-        <v>776</v>
+        <v>801</v>
       </c>
       <c r="E239" s="0" t="s">
-        <v>777</v>
+        <v>802</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>778</v>
+        <v>803</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>778</v>
+        <v>803</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K239" s="0" t="s">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D240" s="0" t="s">
-        <v>779</v>
+        <v>804</v>
       </c>
       <c r="E240" s="0" t="s">
-        <v>780</v>
+        <v>805</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>781</v>
+        <v>806</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>781</v>
+        <v>806</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K240" s="0" t="s">
-        <v>772</v>
+        <v>796</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K172" r:id="rId1" display="https://en.wikipedia.org/w/api.php?action=query&amp;titles=Race%20and%20Intelligence&amp;prop=revisions&amp;format=json&amp;rvlimit=max&amp;rvprop=content"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
